--- a/static/download/2020/RP3_APT_ASMA_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ASMA_2020_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
   <si>
     <t>Data source</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Berlin/ Schoenefeld (EDDB)</t>
+    <t>Berlin/ Brandenburg (EDDB)</t>
   </si>
   <si>
     <t>EDDB</t>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>UK airports removed</t>
+  </si>
+  <si>
+    <t>EDDB, LFBO, LIML</t>
+  </si>
+  <si>
+    <t>data included (late processing)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -669,9 +675,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -749,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44243.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -826,7 +829,7 @@
         <v>41094.0</v>
       </c>
       <c r="E6" s="27">
-        <f>F6/D6</f>
+        <f t="shared" ref="E6:E18" si="1">F6/D6</f>
         <v>0.8857740789</v>
       </c>
       <c r="F6" s="26">
@@ -846,12 +849,19 @@
       <c r="C7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="D7" s="26">
+        <v>19442.0</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.4021564139</v>
+      </c>
+      <c r="F7" s="26">
+        <v>7818.725</v>
+      </c>
+      <c r="G7" s="27">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="23" t="s">
@@ -867,7 +877,7 @@
         <v>99943.0</v>
       </c>
       <c r="E8" s="27">
-        <f t="shared" ref="E8:E18" si="1">F8/D8</f>
+        <f t="shared" si="1"/>
         <v>1.727294558</v>
       </c>
       <c r="F8" s="26">
@@ -1148,7 +1158,7 @@
         <v>56931.0</v>
       </c>
       <c r="E20" s="27">
-        <f t="shared" ref="E20:E28" si="2">F20/D20</f>
+        <f t="shared" ref="E20:E48" si="2">F20/D20</f>
         <v>0.6384746447</v>
       </c>
       <c r="F20" s="26">
@@ -1360,12 +1370,19 @@
       <c r="C29" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="D29" s="26">
+        <v>16954.0</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="2"/>
+        <v>0.5414813613</v>
+      </c>
+      <c r="F29" s="26">
+        <v>9180.275</v>
+      </c>
+      <c r="G29" s="27">
+        <v>13.17</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="23" t="s">
@@ -1381,7 +1398,7 @@
         <v>21148.0</v>
       </c>
       <c r="E30" s="27">
-        <f t="shared" ref="E30:E38" si="3">F30/D30</f>
+        <f t="shared" si="2"/>
         <v>0.3275959902</v>
       </c>
       <c r="F30" s="26">
@@ -1405,7 +1422,7 @@
         <v>20871.0</v>
       </c>
       <c r="E31" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5144458818</v>
       </c>
       <c r="F31" s="26">
@@ -1429,7 +1446,7 @@
         <v>32076.0</v>
       </c>
       <c r="E32" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8646651702</v>
       </c>
       <c r="F32" s="26">
@@ -1453,7 +1470,7 @@
         <v>106726.0</v>
       </c>
       <c r="E33" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6591739595</v>
       </c>
       <c r="F33" s="26">
@@ -1477,7 +1494,7 @@
         <v>41329.0</v>
       </c>
       <c r="E34" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.8171743812</v>
       </c>
       <c r="F34" s="26">
@@ -1501,7 +1518,7 @@
         <v>47400.0</v>
       </c>
       <c r="E35" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.02943038</v>
       </c>
       <c r="F35" s="26">
@@ -1525,7 +1542,7 @@
         <v>22409.0</v>
       </c>
       <c r="E36" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6576375563</v>
       </c>
       <c r="F36" s="26">
@@ -1549,7 +1566,7 @@
         <v>44430.0</v>
       </c>
       <c r="E37" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.851609273</v>
       </c>
       <c r="F37" s="26">
@@ -1573,7 +1590,7 @@
         <v>17820.0</v>
       </c>
       <c r="E38" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.4523007856</v>
       </c>
       <c r="F38" s="26">
@@ -1593,12 +1610,19 @@
       <c r="C39" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
+      <c r="D39" s="26">
+        <v>17657.0</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="2"/>
+        <v>0.7839549</v>
+      </c>
+      <c r="F39" s="26">
+        <v>13842.29167</v>
+      </c>
+      <c r="G39" s="27">
+        <v>11.05</v>
+      </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="23" t="s">
@@ -1614,7 +1638,7 @@
         <v>16534.0</v>
       </c>
       <c r="E40" s="27">
-        <f t="shared" ref="E40:E48" si="4">F40/D40</f>
+        <f t="shared" si="2"/>
         <v>1.062235394</v>
       </c>
       <c r="F40" s="26">
@@ -1638,7 +1662,7 @@
         <v>50151.0</v>
       </c>
       <c r="E41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.246974138</v>
       </c>
       <c r="F41" s="26">
@@ -1662,7 +1686,7 @@
         <v>23629.0</v>
       </c>
       <c r="E42" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.6712091075</v>
       </c>
       <c r="F42" s="26">
@@ -1686,7 +1710,7 @@
         <v>51194.0</v>
       </c>
       <c r="E43" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.282337774</v>
       </c>
       <c r="F43" s="26">
@@ -1710,7 +1734,7 @@
         <v>20796.0</v>
       </c>
       <c r="E44" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.6142527409</v>
       </c>
       <c r="F44" s="26">
@@ -1734,7 +1758,7 @@
         <v>43638.0</v>
       </c>
       <c r="E45" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.507241395</v>
       </c>
       <c r="F45" s="26">
@@ -1758,7 +1782,7 @@
         <v>23773.0</v>
       </c>
       <c r="E46" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.7351617381</v>
       </c>
       <c r="F46" s="26">
@@ -1782,7 +1806,7 @@
         <v>37309.0</v>
       </c>
       <c r="E47" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.274920261</v>
       </c>
       <c r="F47" s="26">
@@ -1806,7 +1830,7 @@
         <v>48222.0</v>
       </c>
       <c r="E48" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.279913732</v>
       </c>
       <c r="F48" s="26">
@@ -1862,22 +1886,30 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37"/>
+      <c r="A3" s="32">
+        <v>44351.0</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="37">
+        <v>2020.0</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="39"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/static/download/2020/RP3_APT_ASMA_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_ASMA_2020_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
   <si>
     <t>Data source</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>data included (late processing)</t>
+  </si>
+  <si>
+    <t>flights added due to late processing</t>
   </si>
 </sst>
 </file>
@@ -682,11 +685,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,11 +901,11 @@
         <v>23</v>
       </c>
       <c r="D9" s="26">
-        <v>25958.0</v>
+        <v>27201.0</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>0.6329840512</v>
+        <v>0.6040586743</v>
       </c>
       <c r="F9" s="26">
         <v>16431.0</v>
@@ -1900,16 +1903,24 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="32">
+        <v>44406.0</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="37">
+        <v>2020.0</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="33"/>
       <c r="C5" s="34"/>
-      <c r="D5" s="38"/>
+      <c r="D5" s="39"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
